--- a/team_specific_matrix/Utah St._B.xlsx
+++ b/team_specific_matrix/Utah St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1926605504587156</v>
+        <v>0.1843137254901961</v>
       </c>
       <c r="C2">
-        <v>0.555045871559633</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1559633027522936</v>
+        <v>0.1490196078431373</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0963302752293578</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01626016260162602</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C3">
-        <v>0.02439024390243903</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03252032520325204</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7317073170731707</v>
+        <v>0.7046979865771812</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1951219512195122</v>
+        <v>0.2214765100671141</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.275</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05095541401273886</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03184713375796178</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08917197452229299</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1847133757961783</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006369426751592357</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1656050955414013</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R6">
-        <v>0.06369426751592357</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="S6">
-        <v>0.4076433121019108</v>
+        <v>0.4030612244897959</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09302325581395349</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="E7">
-        <v>0.005813953488372093</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F7">
-        <v>0.05813953488372093</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1569767441860465</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01162790697674419</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2441860465116279</v>
+        <v>0.233502538071066</v>
       </c>
       <c r="R7">
-        <v>0.04651162790697674</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="S7">
-        <v>0.3604651162790697</v>
+        <v>0.3654822335025381</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1125319693094629</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01534526854219949</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06393861892583121</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09718670076726342</v>
+        <v>0.1014799154334038</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01790281329923274</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1969309462915601</v>
+        <v>0.1881606765327695</v>
       </c>
       <c r="R8">
-        <v>0.07416879795396419</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="S8">
-        <v>0.4219948849104859</v>
+        <v>0.4355179704016913</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1120689655172414</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02586206896551724</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0603448275862069</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103448275862069</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03448275862068965</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2413793103448276</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="R9">
-        <v>0.06896551724137931</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="S9">
-        <v>0.353448275862069</v>
+        <v>0.3698630136986301</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1034077555816686</v>
+        <v>0.1011787819253438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02585193889541716</v>
+        <v>0.02455795677799607</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07168037602820211</v>
+        <v>0.0756385068762279</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1139835487661575</v>
+        <v>0.1070726915520629</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01645123384253819</v>
+        <v>0.01571709233791748</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1985898942420682</v>
+        <v>0.206286836935167</v>
       </c>
       <c r="R10">
-        <v>0.07873090481786134</v>
+        <v>0.07760314341846758</v>
       </c>
       <c r="S10">
-        <v>0.391304347826087</v>
+        <v>0.3919449901768173</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1150793650793651</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1031746031746032</v>
+        <v>0.1107382550335571</v>
       </c>
       <c r="K11">
-        <v>0.1825396825396825</v>
+        <v>0.1778523489932886</v>
       </c>
       <c r="L11">
-        <v>0.5873015873015873</v>
+        <v>0.587248322147651</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0119047619047619</v>
+        <v>0.01006711409395973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7354838709677419</v>
+        <v>0.7158469945355191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1741935483870968</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="K12">
-        <v>0.006451612903225806</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0.03225806451612903</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05161290322580645</v>
+        <v>0.0546448087431694</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02272727272727273</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0273972602739726</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1849315068493151</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I15">
-        <v>0.0547945205479452</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.2671232876712329</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K15">
-        <v>0.1232876712328767</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02054794520547945</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03424657534246575</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2876712328767123</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03378378378378379</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1891891891891892</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="I16">
-        <v>0.06756756756756757</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="J16">
-        <v>0.3378378378378378</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="K16">
-        <v>0.1621621621621622</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02027027027027027</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N16">
-        <v>0.006756756756756757</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="O16">
-        <v>0.07432432432432433</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1081081081081081</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008823529411764706</v>
+        <v>0.009779951100244499</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2205882352941176</v>
+        <v>0.2200488997555012</v>
       </c>
       <c r="I17">
-        <v>0.06176470588235294</v>
+        <v>0.06845965770171149</v>
       </c>
       <c r="J17">
-        <v>0.4117647058823529</v>
+        <v>0.4009779951100245</v>
       </c>
       <c r="K17">
-        <v>0.09705882352941177</v>
+        <v>0.1075794621026895</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03529411764705882</v>
+        <v>0.03422982885085574</v>
       </c>
       <c r="N17">
-        <v>0.005882352941176471</v>
+        <v>0.004889975550122249</v>
       </c>
       <c r="O17">
-        <v>0.05294117647058823</v>
+        <v>0.05134474327628362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1058823529411765</v>
+        <v>0.1026894865525672</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008264462809917356</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1735537190082645</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="I18">
-        <v>0.115702479338843</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.3223140495867768</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K18">
-        <v>0.1487603305785124</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04132231404958678</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0743801652892562</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.115702479338843</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01184068891280947</v>
+        <v>0.01323918799646955</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.263724434876211</v>
+        <v>0.2665489849955869</v>
       </c>
       <c r="I19">
-        <v>0.06781485468245425</v>
+        <v>0.07149161518093557</v>
       </c>
       <c r="J19">
-        <v>0.3541442411194833</v>
+        <v>0.3459841129744042</v>
       </c>
       <c r="K19">
-        <v>0.1130247578040904</v>
+        <v>0.1094439541041483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02368137782561894</v>
+        <v>0.02383053839364519</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05597416576964478</v>
+        <v>0.06266548984995587</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1097954790096878</v>
+        <v>0.1067961165048544</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah St._B.xlsx
+++ b/team_specific_matrix/Utah St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1843137254901961</v>
+        <v>0.1825095057034221</v>
       </c>
       <c r="C2">
-        <v>0.5686274509803921</v>
+        <v>0.5741444866920152</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1490196078431373</v>
+        <v>0.1482889733840304</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09803921568627451</v>
+        <v>0.09505703422053231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01342281879194631</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C3">
-        <v>0.03355704697986577</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02684563758389262</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7046979865771812</v>
+        <v>0.7161290322580646</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2214765100671141</v>
+        <v>0.2129032258064516</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6382978723404256</v>
+        <v>0.62</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3404255319148936</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05612244897959184</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03061224489795918</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08163265306122448</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1938775510204082</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00510204081632653</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.163265306122449</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R6">
-        <v>0.0663265306122449</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="S6">
-        <v>0.4030612244897959</v>
+        <v>0.4046511627906977</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09644670050761421</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02538071065989848</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="E7">
-        <v>0.005076142131979695</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F7">
-        <v>0.05583756345177665</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573604060913706</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01015228426395939</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.233502538071066</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="R7">
-        <v>0.05076142131979695</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="S7">
-        <v>0.3654822335025381</v>
+        <v>0.3778801843317972</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.105708245243129</v>
+        <v>0.09823182711198428</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01691331923890063</v>
+        <v>0.01571709233791748</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06765327695560254</v>
+        <v>0.06483300589390963</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1014799154334038</v>
+        <v>0.0962671905697446</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01902748414376321</v>
+        <v>0.01768172888015717</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1881606765327695</v>
+        <v>0.1944990176817289</v>
       </c>
       <c r="R8">
-        <v>0.06553911205073996</v>
+        <v>0.068762278978389</v>
       </c>
       <c r="S8">
-        <v>0.4355179704016913</v>
+        <v>0.444007858546169</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1095890410958904</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02054794520547945</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06164383561643835</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0958904109589041</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03424657534246575</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2465753424657534</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="R9">
-        <v>0.06164383561643835</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S9">
-        <v>0.3698630136986301</v>
+        <v>0.3831168831168831</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1011787819253438</v>
+        <v>0.09671532846715329</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02455795677799607</v>
+        <v>0.02372262773722628</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0756385068762279</v>
+        <v>0.07846715328467153</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1070726915520629</v>
+        <v>0.1085766423357664</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01571709233791748</v>
+        <v>0.01551094890510949</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.206286836935167</v>
+        <v>0.208029197080292</v>
       </c>
       <c r="R10">
-        <v>0.07760314341846758</v>
+        <v>0.07755474452554745</v>
       </c>
       <c r="S10">
-        <v>0.3919449901768173</v>
+        <v>0.3914233576642336</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1140939597315436</v>
+        <v>0.1242424242424242</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1107382550335571</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="K11">
-        <v>0.1778523489932886</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.587248322147651</v>
+        <v>0.5787878787878787</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01006711409395973</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7158469945355191</v>
+        <v>0.7085427135678392</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1912568306010929</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="K12">
-        <v>0.00546448087431694</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L12">
-        <v>0.03278688524590164</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0546448087431694</v>
+        <v>0.05025125628140704</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7115384615384616</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2692307692307692</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01923076923076923</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02777777777777778</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1777777777777778</v>
+        <v>0.1813471502590674</v>
       </c>
       <c r="I15">
-        <v>0.06111111111111111</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="J15">
-        <v>0.2777777777777778</v>
+        <v>0.2901554404145077</v>
       </c>
       <c r="K15">
-        <v>0.1222222222222222</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01666666666666667</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03333333333333333</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2833333333333333</v>
+        <v>0.2746113989637305</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02976190476190476</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1845238095238095</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="I16">
-        <v>0.06547619047619048</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="J16">
-        <v>0.3392857142857143</v>
+        <v>0.3371428571428571</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N16">
-        <v>0.005952380952380952</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.119047619047619</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009779951100244499</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2200488997555012</v>
+        <v>0.2152466367713005</v>
       </c>
       <c r="I17">
-        <v>0.06845965770171149</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J17">
-        <v>0.4009779951100245</v>
+        <v>0.3968609865470852</v>
       </c>
       <c r="K17">
-        <v>0.1075794621026895</v>
+        <v>0.1098654708520179</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03422982885085574</v>
+        <v>0.0336322869955157</v>
       </c>
       <c r="N17">
-        <v>0.004889975550122249</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="O17">
-        <v>0.05134474327628362</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1026894865525672</v>
+        <v>0.1053811659192825</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007142857142857143</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1642857142857143</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J18">
-        <v>0.3571428571428572</v>
+        <v>0.3660130718954248</v>
       </c>
       <c r="K18">
-        <v>0.1357142857142857</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04285714285714286</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07857142857142857</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01323918799646955</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2665489849955869</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="I19">
-        <v>0.07149161518093557</v>
+        <v>0.06781045751633986</v>
       </c>
       <c r="J19">
-        <v>0.3459841129744042</v>
+        <v>0.3439542483660131</v>
       </c>
       <c r="K19">
-        <v>0.1094439541041483</v>
+        <v>0.113562091503268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02383053839364519</v>
+        <v>0.02532679738562092</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06266548984995587</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1067961165048544</v>
+        <v>0.1070261437908497</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Utah St._B.xlsx
+++ b/team_specific_matrix/Utah St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1825095057034221</v>
+        <v>0.1828358208955224</v>
       </c>
       <c r="C2">
-        <v>0.5741444866920152</v>
+        <v>0.5783582089552238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1482889733840304</v>
+        <v>0.1455223880597015</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09505703422053231</v>
+        <v>0.09328358208955224</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01290322580645161</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02580645161290323</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7161290322580646</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2129032258064516</v>
+        <v>0.2138364779874214</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06511627906976744</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03255813953488372</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07906976744186046</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1906976744186047</v>
+        <v>0.1928251121076233</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004651162790697674</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1627906976744186</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="R6">
-        <v>0.06046511627906977</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="S6">
-        <v>0.4046511627906977</v>
+        <v>0.3991031390134529</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09216589861751152</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02764976958525346</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="E7">
-        <v>0.004608294930875576</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F7">
-        <v>0.05990783410138249</v>
+        <v>0.06726457399103139</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009216589861751152</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2304147465437788</v>
+        <v>0.2286995515695067</v>
       </c>
       <c r="R7">
-        <v>0.05529953917050692</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="S7">
-        <v>0.3778801843317972</v>
+        <v>0.3766816143497758</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09823182711198428</v>
+        <v>0.09541984732824428</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01571709233791748</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06483300589390963</v>
+        <v>0.06297709923664122</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0962671905697446</v>
+        <v>0.09732824427480916</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01768172888015717</v>
+        <v>0.01717557251908397</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1944990176817289</v>
+        <v>0.1965648854961832</v>
       </c>
       <c r="R8">
-        <v>0.068762278978389</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="S8">
-        <v>0.444007858546169</v>
+        <v>0.4427480916030535</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1038961038961039</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01948051948051948</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06493506493506493</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09090909090909091</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03246753246753246</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2402597402597403</v>
+        <v>0.2544378698224852</v>
       </c>
       <c r="R9">
-        <v>0.06493506493506493</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0.3831168831168831</v>
+        <v>0.3609467455621302</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09671532846715329</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02372262773722628</v>
+        <v>0.02304964539007092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07846715328467153</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1085766423357664</v>
+        <v>0.1081560283687943</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01551094890510949</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.208029197080292</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R10">
-        <v>0.07755474452554745</v>
+        <v>0.07535460992907801</v>
       </c>
       <c r="S10">
-        <v>0.3914233576642336</v>
+        <v>0.3953900709219858</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1242424242424242</v>
+        <v>0.1246376811594203</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1060606060606061</v>
+        <v>0.1101449275362319</v>
       </c>
       <c r="K11">
-        <v>0.1818181818181818</v>
+        <v>0.1855072463768116</v>
       </c>
       <c r="L11">
-        <v>0.5787878787878787</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00909090909090909</v>
+        <v>0.008695652173913044</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7085427135678392</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2060301507537688</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="K12">
-        <v>0.005025125628140704</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="L12">
-        <v>0.03015075376884422</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05025125628140704</v>
+        <v>0.05365853658536585</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02590673575129534</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1813471502590674</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="I15">
-        <v>0.05699481865284974</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="J15">
-        <v>0.2901554404145077</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="K15">
-        <v>0.1191709844559585</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02072538860103627</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0310880829015544</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2746113989637305</v>
+        <v>0.2722772277227723</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02857142857142857</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1942857142857143</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="I16">
-        <v>0.06857142857142857</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="J16">
-        <v>0.3371428571428571</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="K16">
-        <v>0.1657142857142857</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01714285714285714</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N16">
-        <v>0.005714285714285714</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="O16">
-        <v>0.06857142857142857</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1142857142857143</v>
+        <v>0.1123595505617977</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008968609865470852</v>
+        <v>0.008565310492505354</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2152466367713005</v>
+        <v>0.2184154175588865</v>
       </c>
       <c r="I17">
-        <v>0.07174887892376682</v>
+        <v>0.07494646680942184</v>
       </c>
       <c r="J17">
-        <v>0.3968609865470852</v>
+        <v>0.3940042826552462</v>
       </c>
       <c r="K17">
-        <v>0.1098654708520179</v>
+        <v>0.1113490364025696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0336322869955157</v>
+        <v>0.03211991434689507</v>
       </c>
       <c r="N17">
-        <v>0.004484304932735426</v>
+        <v>0.004282655246252677</v>
       </c>
       <c r="O17">
-        <v>0.05381165919282511</v>
+        <v>0.05353319057815846</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1053811659192825</v>
+        <v>0.1027837259100642</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006535947712418301</v>
+        <v>0.00625</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1699346405228758</v>
+        <v>0.18125</v>
       </c>
       <c r="I18">
-        <v>0.09803921568627451</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.3660130718954248</v>
+        <v>0.35</v>
       </c>
       <c r="K18">
-        <v>0.1372549019607843</v>
+        <v>0.1375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0392156862745098</v>
+        <v>0.0375</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0718954248366013</v>
+        <v>0.075</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01470588235294118</v>
+        <v>0.01503164556962025</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2638888888888889</v>
+        <v>0.2602848101265823</v>
       </c>
       <c r="I19">
-        <v>0.06781045751633986</v>
+        <v>0.07199367088607594</v>
       </c>
       <c r="J19">
-        <v>0.3439542483660131</v>
+        <v>0.3409810126582278</v>
       </c>
       <c r="K19">
-        <v>0.113562091503268</v>
+        <v>0.1147151898734177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02532679738562092</v>
+        <v>0.0245253164556962</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06372549019607843</v>
+        <v>0.06408227848101265</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1070261437908497</v>
+        <v>0.1083860759493671</v>
       </c>
     </row>
   </sheetData>
